--- a/BalanceSheet/KSU_bal.xlsx
+++ b/BalanceSheet/KSU_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>132000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-900000.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3300000.0</v>
+        <v>128000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>13400000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5900000.0</v>
+        <v>144000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>150600000.0</v>
@@ -1725,19 +1725,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-9600000.0</v>
+        <v>457000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>175000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>34200000.0</v>
+        <v>458000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>21800000.0</v>
+        <v>425000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-38000000.0</v>
+        <v>433000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>473300000.0</v>
@@ -2430,19 +2430,19 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>6200000.0</v>
+        <v>1213000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3700000.0</v>
+        <v>1185000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>11400000.0</v>
+        <v>1177000000.0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>14500000.0</v>
+        <v>1165000000.0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>19800000.0</v>
+        <v>1149000000.0</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1128000000.0</v>
